--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.030320-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Levy.Spring.030320-2.xlsx_with_dialog_acts.xlsx
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1613,12 +1613,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2507,12 +2507,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3057,12 +3057,12 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3267,12 +3267,12 @@
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3477,12 +3477,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -3645,12 +3645,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3939,12 +3939,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4405,12 +4405,12 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4909,12 +4909,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5707,12 +5707,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5749,12 +5749,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -5791,12 +5791,12 @@
       <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -6001,12 +6001,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6589,12 +6589,12 @@
       <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8103,12 +8103,12 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8233,12 +8233,12 @@
       <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8401,12 +8401,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8653,12 +8653,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9031,12 +9031,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9115,12 +9115,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9241,12 +9241,12 @@
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9493,12 +9493,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -9703,12 +9703,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10211,12 +10211,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10379,12 +10379,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11051,12 +11051,12 @@
       <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J252" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11345,12 +11345,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11429,12 +11429,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11639,12 +11639,12 @@
       <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J266" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11807,12 +11807,12 @@
       <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12437,12 +12437,12 @@
       </c>
       <c r="I285" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J285" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12479,12 +12479,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12563,12 +12563,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13159,12 +13159,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
